--- a/in/gaza_food_data.xlsx
+++ b/in/gaza_food_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_nutrition_paper\caloric_availability\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF185A-0035-423F-9472-FFA42F810E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A39A5-BD53-41FB-B8BA-612D74264FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="460">
   <si>
     <t>North Gaza</t>
   </si>
@@ -1386,51 +1386,24 @@
     <t>sex</t>
   </si>
   <si>
-    <t>age_mean</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
-    <t>intake_baseline</t>
-  </si>
-  <si>
     <t>svy_wt</t>
   </si>
   <si>
-    <t>f_start</t>
-  </si>
-  <si>
-    <t>wt_now</t>
-  </si>
-  <si>
-    <t>[40,50)</t>
-  </si>
-  <si>
     <t>40 to 49yo</t>
   </si>
   <si>
-    <t>[50,60)</t>
-  </si>
-  <si>
     <t>50 to 59yo</t>
   </si>
   <si>
-    <t>[60,70)</t>
-  </si>
-  <si>
     <t>60 to 69yo</t>
   </si>
   <si>
-    <t>[70,120]</t>
-  </si>
-  <si>
-    <t>70 to 100yo</t>
-  </si>
-  <si>
     <t>JLOTS port; unclear whether destination mostly south-central or north</t>
   </si>
   <si>
@@ -1441,6 +1414,27 @@
   </si>
   <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>https://fscluster.org/state-of-palestine/document/damage-cropland-due-conflict-gaza-strip</t>
+  </si>
+  <si>
+    <t>57.3% of arable land damaged (FAO)</t>
+  </si>
+  <si>
+    <t>intake</t>
+  </si>
+  <si>
+    <t>intake_log</t>
+  </si>
+  <si>
+    <t>n_obs</t>
+  </si>
+  <si>
+    <t>intake_log_sd</t>
+  </si>
+  <si>
+    <t>&gt;=70yo</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1607,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1807,14 +1801,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2141,7 +2127,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2345,309 +2331,309 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="71" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="G1" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G1" s="75" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="17">
+        <v>810</v>
+      </c>
+      <c r="D2" s="17">
+        <v>44.676543209876499</v>
+      </c>
+      <c r="E2" s="17">
+        <v>81.055061688835195</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1.5886888874901699</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2668.2505723741301</v>
+      </c>
+      <c r="H2" s="17">
+        <v>7.82169090966058</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.36742853429844502</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.19304099142039999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="17">
+        <v>364</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45.535714285714299</v>
+      </c>
+      <c r="E3" s="17">
+        <v>83.817980829175994</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1.72449038480664</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3356.6235358269701</v>
+      </c>
+      <c r="H3" s="17">
+        <v>8.0536686638196393</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.36369498613120999</v>
+      </c>
+      <c r="J3" s="17">
+        <v>8.6749285033365098E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="17">
+        <v>747</v>
+      </c>
+      <c r="D4" s="17">
+        <v>54.4578313253012</v>
+      </c>
+      <c r="E4" s="17">
+        <v>84.5336123291588</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1.5770883529859701</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2603.76244054996</v>
+      </c>
+      <c r="H4" s="17">
+        <v>7.7940738260203597</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.37673913324513197</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.178026692087703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="17">
+        <v>722</v>
+      </c>
+      <c r="D5" s="17">
+        <v>54.480609418282498</v>
+      </c>
+      <c r="E5" s="17">
+        <v>84.871421977753798</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.7088820424106299</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3266.5820140046098</v>
+      </c>
+      <c r="H5" s="17">
+        <v>8.0221530597923607</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.37609108824246201</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.172068636796949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="J1" s="75" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="77">
-        <v>44.676543209876499</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="77">
-        <v>81.055061688835195</v>
-      </c>
-      <c r="F2" s="77">
-        <v>1.5886888874901699</v>
-      </c>
-      <c r="G2" s="77">
-        <v>2668.2505723741301</v>
-      </c>
-      <c r="H2" s="77">
-        <v>0.19304099142039999</v>
-      </c>
-      <c r="I2" s="77">
-        <v>34.755079154413998</v>
-      </c>
-      <c r="J2" s="77">
-        <v>81.055061688835195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C6" s="17">
+        <v>495</v>
+      </c>
+      <c r="D6" s="17">
+        <v>64.088888888888903</v>
+      </c>
+      <c r="E6" s="17">
+        <v>84.182710481894105</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1.5547333286266101</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2533.1299111722701</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7.7703118976691901</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.366978027672754</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.117969494756911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="77">
-        <v>45.535714285714299</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" s="77">
-        <v>83.817980829175994</v>
-      </c>
-      <c r="F3" s="77">
-        <v>1.72449038480664</v>
-      </c>
-      <c r="G3" s="77">
-        <v>3356.6235358269701</v>
-      </c>
-      <c r="H3" s="77">
-        <v>8.6749285033365098E-2</v>
-      </c>
-      <c r="I3" s="77">
-        <v>22.6350970867814</v>
-      </c>
-      <c r="J3" s="77">
-        <v>83.817980829175994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C7" s="17">
+        <v>516</v>
+      </c>
+      <c r="D7" s="17">
+        <v>64.110465116279101</v>
+      </c>
+      <c r="E7" s="17">
+        <v>85.436563336571993</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1.6950074284113701</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2939.15374838659</v>
+      </c>
+      <c r="H7" s="17">
+        <v>7.9158407977176202</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.37830673885243898</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.12297426120114401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="77">
-        <v>54.4578313253012</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="77">
-        <v>84.5336123291588</v>
-      </c>
-      <c r="F4" s="77">
-        <v>1.5770883529859701</v>
-      </c>
-      <c r="G4" s="77">
-        <v>2603.76244054996</v>
-      </c>
-      <c r="H4" s="77">
-        <v>0.178026692087703</v>
-      </c>
-      <c r="I4" s="77">
-        <v>39.318793599952798</v>
-      </c>
-      <c r="J4" s="77">
-        <v>84.5336123291588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C8" s="17">
+        <v>245</v>
+      </c>
+      <c r="D8" s="17">
+        <v>74.648979591836707</v>
+      </c>
+      <c r="E8" s="17">
+        <v>77.266054363639995</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.52067142797976</v>
+      </c>
+      <c r="G8" s="17">
+        <v>2429.1057632134898</v>
+      </c>
+      <c r="H8" s="17">
+        <v>7.7247829996580997</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.38323261416230098</v>
+      </c>
+      <c r="J8" s="17">
+        <v>5.8388941849380399E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="77">
-        <v>54.480609418282498</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="77">
-        <v>84.871421977753798</v>
-      </c>
-      <c r="F5" s="77">
-        <v>1.7088820424106299</v>
-      </c>
-      <c r="G5" s="77">
-        <v>3266.5820140046098</v>
-      </c>
-      <c r="H5" s="77">
-        <v>0.172068636796949</v>
-      </c>
-      <c r="I5" s="77">
-        <v>24.953716069934998</v>
-      </c>
-      <c r="J5" s="77">
-        <v>84.871421977753798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="77">
-        <v>64.088888888888903</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" s="77">
-        <v>84.182710481894105</v>
-      </c>
-      <c r="F6" s="77">
-        <v>1.5547333286266101</v>
-      </c>
-      <c r="G6" s="77">
-        <v>2533.1299111722701</v>
-      </c>
-      <c r="H6" s="77">
-        <v>0.117969494756911</v>
-      </c>
-      <c r="I6" s="77">
-        <v>41.111220267657004</v>
-      </c>
-      <c r="J6" s="77">
-        <v>84.182710481894105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="77">
-        <v>64.110465116279101</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>455</v>
-      </c>
-      <c r="E7" s="77">
-        <v>85.436563336571993</v>
-      </c>
-      <c r="F7" s="77">
-        <v>1.6950074284113701</v>
-      </c>
-      <c r="G7" s="77">
-        <v>2939.15374838659</v>
-      </c>
-      <c r="H7" s="77">
-        <v>0.12297426120114401</v>
-      </c>
-      <c r="I7" s="77">
-        <v>27.003013915777199</v>
-      </c>
-      <c r="J7" s="77">
-        <v>85.436563336571993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="77">
-        <v>74.648979591836707</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>457</v>
-      </c>
-      <c r="E8" s="77">
-        <v>77.266054363639995</v>
-      </c>
-      <c r="F8" s="77">
-        <v>1.52067142797976</v>
-      </c>
-      <c r="G8" s="77">
-        <v>2429.1057632134898</v>
-      </c>
-      <c r="H8" s="77">
-        <v>5.8388941849380399E-2</v>
-      </c>
-      <c r="I8" s="77">
-        <v>37.596540198477904</v>
-      </c>
-      <c r="J8" s="77">
-        <v>77.266054363639995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="77">
+      <c r="C9" s="17">
+        <v>297</v>
+      </c>
+      <c r="D9" s="17">
         <v>74.946127946127902</v>
       </c>
-      <c r="D9" s="78" t="s">
-        <v>457</v>
-      </c>
-      <c r="E9" s="77">
+      <c r="E9" s="17">
         <v>78.553198830447201</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="17">
         <v>1.6657946077661501</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="17">
         <v>2861.3192594894299</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="17">
+        <v>7.8918114151891903</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.36582133670133099</v>
+      </c>
+      <c r="J9" s="17">
         <v>7.07816968541468E-2</v>
-      </c>
-      <c r="I9" s="77">
-        <v>24.576290047970801</v>
-      </c>
-      <c r="J9" s="77">
-        <v>78.553198830447201</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2649,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,7 +3507,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,10 +3644,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3672,10 +3658,11 @@
     <col min="4" max="4" width="13.140625" style="60" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="35"/>
+    <col min="8" max="8" width="83.85546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>127</v>
       </c>
@@ -3697,8 +3684,11 @@
       <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>194</v>
       </c>
@@ -3718,8 +3708,9 @@
         <v>0.15</v>
       </c>
       <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>194</v>
       </c>
@@ -3739,8 +3730,9 @@
         <v>0.15</v>
       </c>
       <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>194</v>
       </c>
@@ -3762,8 +3754,9 @@
       <c r="G4" s="37" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>194</v>
       </c>
@@ -3780,13 +3773,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="57">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>194</v>
       </c>
@@ -3803,13 +3797,14 @@
         <v>0.06</v>
       </c>
       <c r="F6" s="58">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>194</v>
       </c>
@@ -3826,11 +3821,12 @@
         <v>0.06</v>
       </c>
       <c r="F7" s="58">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>194</v>
       </c>
@@ -3844,14 +3840,15 @@
         <v>45389</v>
       </c>
       <c r="E8" s="58">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F8" s="58">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>194</v>
       </c>
@@ -3865,14 +3862,19 @@
         <v>45419</v>
       </c>
       <c r="E9" s="58">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F9" s="58">
-        <v>0.11</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>194</v>
       </c>
@@ -3886,14 +3888,15 @@
         <v>45450</v>
       </c>
       <c r="E10" s="58">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F10" s="58">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>194</v>
       </c>
@@ -3907,14 +3910,15 @@
         <v>45480</v>
       </c>
       <c r="E11" s="58">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F11" s="58">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>194</v>
       </c>
@@ -3928,13 +3932,18 @@
         <v>45511</v>
       </c>
       <c r="E12" s="58">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F12" s="58">
-        <v>0.11</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{145AE48B-C2CA-44D7-BC0F-3B82F0E26B22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5066,7 +5075,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>44</v>
@@ -5077,7 +5086,7 @@
       <c r="G1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="77" t="s">
         <v>62</v>
       </c>
       <c r="I1" s="24" t="s">
@@ -5101,7 +5110,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>66</v>
@@ -5133,7 +5142,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>66</v>
@@ -5165,7 +5174,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>66</v>
@@ -5197,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>66</v>
@@ -5230,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>46</v>
@@ -5252,7 +5261,7 @@
       <c r="J6" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="76" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5267,7 +5276,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>66</v>
@@ -5299,7 +5308,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>66</v>
@@ -5331,7 +5340,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>70</v>
@@ -5368,7 +5377,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>66</v>
@@ -5400,7 +5409,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>66</v>
@@ -5432,7 +5441,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>66</v>
@@ -5464,7 +5473,7 @@
         <v>126</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>46</v>
@@ -5501,7 +5510,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>105</v>
@@ -5538,7 +5547,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>70</v>
@@ -5575,7 +5584,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>66</v>
@@ -5608,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>46</v>
@@ -5645,7 +5654,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>70</v>
@@ -5682,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>66</v>
@@ -5714,7 +5723,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>66</v>
@@ -5746,7 +5755,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>66</v>
@@ -5778,7 +5787,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>46</v>
@@ -5815,7 +5824,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>46</v>
@@ -5853,7 +5862,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>46</v>
@@ -5891,7 +5900,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>46</v>
@@ -5928,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>66</v>
@@ -5960,7 +5969,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>66</v>
@@ -5992,7 +6001,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>46</v>
@@ -6029,7 +6038,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>66</v>
@@ -6062,7 +6071,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>46</v>
@@ -6099,7 +6108,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>46</v>
@@ -6137,7 +6146,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>46</v>
@@ -6175,7 +6184,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>46</v>
@@ -6213,7 +6222,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>46</v>
@@ -6251,7 +6260,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>46</v>
@@ -6288,7 +6297,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>66</v>
@@ -6320,7 +6329,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>66</v>
@@ -6352,7 +6361,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -6384,7 +6393,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>66</v>
@@ -6416,7 +6425,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>46</v>
@@ -6453,7 +6462,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>66</v>
@@ -6485,7 +6494,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>66</v>
@@ -6517,7 +6526,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>46</v>
@@ -6554,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>66</v>
@@ -6586,7 +6595,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>66</v>
@@ -6618,7 +6627,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>66</v>
@@ -6650,7 +6659,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>66</v>
@@ -6682,7 +6691,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>46</v>
@@ -6719,7 +6728,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>66</v>
@@ -6751,7 +6760,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>66</v>
@@ -6783,7 +6792,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>66</v>
@@ -6815,7 +6824,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>66</v>
@@ -6847,7 +6856,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>66</v>
@@ -6879,7 +6888,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>66</v>
@@ -6911,7 +6920,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>66</v>
@@ -6943,7 +6952,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>66</v>
@@ -6975,7 +6984,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>66</v>
@@ -7007,7 +7016,7 @@
         <v>39</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>46</v>
@@ -7044,7 +7053,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>105</v>
@@ -7081,7 +7090,7 @@
         <v>126</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>46</v>
@@ -7098,12 +7107,12 @@
         <v>6642500000</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K60" s="79" t="s">
+      <c r="K60" s="75" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7118,7 +7127,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>46</v>
@@ -7135,7 +7144,7 @@
         <v>2657000000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>118</v>
@@ -7156,7 +7165,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>46</v>
@@ -7173,7 +7182,7 @@
         <v>7189842000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>118</v>
@@ -7337,7 +7346,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/in/gaza_food_data.xlsx
+++ b/in/gaza_food_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_nutrition_paper\caloric_availability\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A39A5-BD53-41FB-B8BA-612D74264FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE4432-5755-4D98-A398-3FBC32BC35D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2128,7 +2128,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3647,7 +3647,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/in/gaza_food_data.xlsx
+++ b/in/gaza_food_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_nutrition_paper\caloric_availability\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_food_availability-assume_underreporting\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A39A5-BD53-41FB-B8BA-612D74264FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C0961-9180-4C67-8C16-B33500EB043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="462">
   <si>
     <t>North Gaza</t>
   </si>
@@ -1326,9 +1326,6 @@
     <t>ending date of analysis period</t>
   </si>
   <si>
-    <t>31Aug2024</t>
-  </si>
-  <si>
     <t>Kcal equivalent of existing UNRWA stock in Gaza as of 6 Oct 2023</t>
   </si>
   <si>
@@ -1435,6 +1432,15 @@
   </si>
   <si>
     <t>&gt;=70yo</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>extent of underreporting after 6 May 2024</t>
+  </si>
+  <si>
+    <t>30Sep2024</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1613,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1809,6 +1815,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2125,10 +2134,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="38" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,7 +2288,7 @@
         <v>151</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1</v>
@@ -2300,6 +2309,20 @@
       </c>
       <c r="D12" s="42" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -2350,39 +2373,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>442</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>87</v>
@@ -2414,7 +2437,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>88</v>
@@ -2446,7 +2469,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>87</v>
@@ -2478,7 +2501,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>88</v>
@@ -2510,7 +2533,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>87</v>
@@ -2542,7 +2565,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>88</v>
@@ -2574,7 +2597,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>87</v>
@@ -2606,7 +2629,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>88</v>
@@ -2649,7 +2672,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,10 +3667,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3868,10 +3891,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +3949,7 @@
         <v>195</v>
       </c>
       <c r="C12" s="46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="56">
         <v>45511</v>
@@ -3939,6 +3962,28 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="46">
+        <v>12</v>
+      </c>
+      <c r="D13" s="56">
+        <v>45511</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5045,7 +5090,7 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -5075,7 +5120,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>44</v>
@@ -5110,7 +5155,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>66</v>
@@ -5142,7 +5187,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>66</v>
@@ -5174,7 +5219,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>66</v>
@@ -5206,7 +5251,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>66</v>
@@ -5239,7 +5284,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>46</v>
@@ -5276,7 +5321,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>66</v>
@@ -5308,7 +5353,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>66</v>
@@ -5340,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>70</v>
@@ -5377,7 +5422,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>66</v>
@@ -5409,7 +5454,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>66</v>
@@ -5441,7 +5486,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>66</v>
@@ -5473,7 +5518,7 @@
         <v>126</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>46</v>
@@ -5510,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>105</v>
@@ -5547,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>70</v>
@@ -5584,7 +5629,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>66</v>
@@ -5617,7 +5662,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>46</v>
@@ -5654,7 +5699,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>70</v>
@@ -5691,7 +5736,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>66</v>
@@ -5723,7 +5768,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>66</v>
@@ -5755,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>66</v>
@@ -5787,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>46</v>
@@ -5824,7 +5869,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>46</v>
@@ -5862,7 +5907,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>46</v>
@@ -5900,7 +5945,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>46</v>
@@ -5937,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>66</v>
@@ -5969,7 +6014,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>66</v>
@@ -6001,7 +6046,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>46</v>
@@ -6038,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>66</v>
@@ -6071,7 +6116,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>46</v>
@@ -6108,7 +6153,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>46</v>
@@ -6146,7 +6191,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>46</v>
@@ -6184,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>46</v>
@@ -6222,7 +6267,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>46</v>
@@ -6260,7 +6305,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>46</v>
@@ -6297,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>66</v>
@@ -6329,7 +6374,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>66</v>
@@ -6361,7 +6406,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -6393,7 +6438,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>66</v>
@@ -6425,7 +6470,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>46</v>
@@ -6462,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>66</v>
@@ -6494,7 +6539,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>66</v>
@@ -6526,7 +6571,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>46</v>
@@ -6563,7 +6608,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>66</v>
@@ -6595,7 +6640,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>66</v>
@@ -6627,7 +6672,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>66</v>
@@ -6659,7 +6704,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>66</v>
@@ -6691,7 +6736,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>46</v>
@@ -6728,7 +6773,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>66</v>
@@ -6760,7 +6805,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>66</v>
@@ -6792,7 +6837,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>66</v>
@@ -6824,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>66</v>
@@ -6856,7 +6901,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>66</v>
@@ -6888,7 +6933,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>66</v>
@@ -6920,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>66</v>
@@ -6952,7 +6997,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>66</v>
@@ -6984,7 +7029,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>66</v>
@@ -7016,7 +7061,7 @@
         <v>39</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>46</v>
@@ -7053,7 +7098,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>105</v>
@@ -7090,7 +7135,7 @@
         <v>126</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>46</v>
@@ -7107,7 +7152,7 @@
         <v>6642500000</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>118</v>
@@ -7127,7 +7172,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>46</v>
@@ -7144,7 +7189,7 @@
         <v>2657000000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>118</v>
@@ -7165,7 +7210,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>46</v>
@@ -7182,7 +7227,7 @@
         <v>7189842000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>118</v>
@@ -8612,7 +8657,7 @@
     </row>
     <row r="25" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>201</v>
@@ -8662,7 +8707,7 @@
     </row>
     <row r="29" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>227</v>
@@ -8671,7 +8716,7 @@
         <v>310</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8738,7 +8783,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>201</v>
@@ -8747,7 +8792,7 @@
         <v>4380</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8884,7 +8929,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>201</v>
@@ -8920,7 +8965,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>227</v>
@@ -9064,7 +9109,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>201</v>
@@ -9232,7 +9277,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>201</v>
@@ -9292,7 +9337,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B81" s="36" t="s">
         <v>210</v>
@@ -9301,7 +9346,7 @@
         <v>640</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,7 +9375,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B84" s="36" t="s">
         <v>201</v>
@@ -9510,7 +9555,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B99" s="36" t="s">
         <v>201</v>
@@ -9763,7 +9808,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="36" t="s">
         <v>201</v>
@@ -9883,7 +9928,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B130" s="36" t="s">
         <v>201</v>
@@ -9907,7 +9952,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B132" s="36" t="s">
         <v>235</v>

--- a/in/gaza_food_data.xlsx
+++ b/in/gaza_food_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_nutrition_paper\caloric_availability\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_food_availability-assume_underreporting\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE4432-5755-4D98-A398-3FBC32BC35D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C0961-9180-4C67-8C16-B33500EB043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="462">
   <si>
     <t>North Gaza</t>
   </si>
@@ -1326,9 +1326,6 @@
     <t>ending date of analysis period</t>
   </si>
   <si>
-    <t>31Aug2024</t>
-  </si>
-  <si>
     <t>Kcal equivalent of existing UNRWA stock in Gaza as of 6 Oct 2023</t>
   </si>
   <si>
@@ -1435,6 +1432,15 @@
   </si>
   <si>
     <t>&gt;=70yo</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>extent of underreporting after 6 May 2024</t>
+  </si>
+  <si>
+    <t>30Sep2024</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1613,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1809,6 +1815,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2125,10 +2134,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="38" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,7 +2288,7 @@
         <v>151</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1</v>
@@ -2300,6 +2309,20 @@
       </c>
       <c r="D12" s="42" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -2350,39 +2373,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>442</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>87</v>
@@ -2414,7 +2437,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>88</v>
@@ -2446,7 +2469,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>87</v>
@@ -2478,7 +2501,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>88</v>
@@ -2510,7 +2533,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>87</v>
@@ -2542,7 +2565,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>88</v>
@@ -2574,7 +2597,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>87</v>
@@ -2606,7 +2629,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>88</v>
@@ -2649,7 +2672,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,10 +3667,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3868,10 +3891,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +3949,7 @@
         <v>195</v>
       </c>
       <c r="C12" s="46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="56">
         <v>45511</v>
@@ -3939,6 +3962,28 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="46">
+        <v>12</v>
+      </c>
+      <c r="D13" s="56">
+        <v>45511</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5045,7 +5090,7 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -5075,7 +5120,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>44</v>
@@ -5110,7 +5155,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>66</v>
@@ -5142,7 +5187,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>66</v>
@@ -5174,7 +5219,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>66</v>
@@ -5206,7 +5251,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>66</v>
@@ -5239,7 +5284,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>46</v>
@@ -5276,7 +5321,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>66</v>
@@ -5308,7 +5353,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>66</v>
@@ -5340,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>70</v>
@@ -5377,7 +5422,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>66</v>
@@ -5409,7 +5454,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>66</v>
@@ -5441,7 +5486,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>66</v>
@@ -5473,7 +5518,7 @@
         <v>126</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>46</v>
@@ -5510,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>105</v>
@@ -5547,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>70</v>
@@ -5584,7 +5629,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>66</v>
@@ -5617,7 +5662,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>46</v>
@@ -5654,7 +5699,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>70</v>
@@ -5691,7 +5736,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>66</v>
@@ -5723,7 +5768,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>66</v>
@@ -5755,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>66</v>
@@ -5787,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>46</v>
@@ -5824,7 +5869,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>46</v>
@@ -5862,7 +5907,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>46</v>
@@ -5900,7 +5945,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>46</v>
@@ -5937,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>66</v>
@@ -5969,7 +6014,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>66</v>
@@ -6001,7 +6046,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>46</v>
@@ -6038,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>66</v>
@@ -6071,7 +6116,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>46</v>
@@ -6108,7 +6153,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>46</v>
@@ -6146,7 +6191,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>46</v>
@@ -6184,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>46</v>
@@ -6222,7 +6267,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>46</v>
@@ -6260,7 +6305,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>46</v>
@@ -6297,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>66</v>
@@ -6329,7 +6374,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>66</v>
@@ -6361,7 +6406,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -6393,7 +6438,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>66</v>
@@ -6425,7 +6470,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>46</v>
@@ -6462,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>66</v>
@@ -6494,7 +6539,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>66</v>
@@ -6526,7 +6571,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>46</v>
@@ -6563,7 +6608,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>66</v>
@@ -6595,7 +6640,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>66</v>
@@ -6627,7 +6672,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>66</v>
@@ -6659,7 +6704,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>66</v>
@@ -6691,7 +6736,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>46</v>
@@ -6728,7 +6773,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>66</v>
@@ -6760,7 +6805,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>66</v>
@@ -6792,7 +6837,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>66</v>
@@ -6824,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>66</v>
@@ -6856,7 +6901,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>66</v>
@@ -6888,7 +6933,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>66</v>
@@ -6920,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>66</v>
@@ -6952,7 +6997,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>66</v>
@@ -6984,7 +7029,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>66</v>
@@ -7016,7 +7061,7 @@
         <v>39</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>46</v>
@@ -7053,7 +7098,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>105</v>
@@ -7090,7 +7135,7 @@
         <v>126</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>46</v>
@@ -7107,7 +7152,7 @@
         <v>6642500000</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>118</v>
@@ -7127,7 +7172,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>46</v>
@@ -7144,7 +7189,7 @@
         <v>2657000000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>118</v>
@@ -7165,7 +7210,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>46</v>
@@ -7182,7 +7227,7 @@
         <v>7189842000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>118</v>
@@ -8612,7 +8657,7 @@
     </row>
     <row r="25" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>201</v>
@@ -8662,7 +8707,7 @@
     </row>
     <row r="29" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>227</v>
@@ -8671,7 +8716,7 @@
         <v>310</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8738,7 +8783,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>201</v>
@@ -8747,7 +8792,7 @@
         <v>4380</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8884,7 +8929,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>201</v>
@@ -8920,7 +8965,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>227</v>
@@ -9064,7 +9109,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>201</v>
@@ -9232,7 +9277,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>201</v>
@@ -9292,7 +9337,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B81" s="36" t="s">
         <v>210</v>
@@ -9301,7 +9346,7 @@
         <v>640</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,7 +9375,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B84" s="36" t="s">
         <v>201</v>
@@ -9510,7 +9555,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B99" s="36" t="s">
         <v>201</v>
@@ -9763,7 +9808,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="36" t="s">
         <v>201</v>
@@ -9883,7 +9928,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B130" s="36" t="s">
         <v>201</v>
@@ -9907,7 +9952,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B132" s="36" t="s">
         <v>235</v>

--- a/in/gaza_food_data.xlsx
+++ b/in/gaza_food_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_food_availability-assume_underreporting\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mortality_estimation_crises\gaza 2023-2024\gaza_nutrition_papers\caloric_availability\revised\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C0961-9180-4C67-8C16-B33500EB043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E4A03-52A1-48FA-B326-C3F80734894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="14" r:id="rId1"/>
@@ -22,17 +22,18 @@
     <sheet name="prop_reliant" sheetId="21" r:id="rId7"/>
     <sheet name="kcal_equi" sheetId="19" r:id="rId8"/>
     <sheet name="parcels" sheetId="20" r:id="rId9"/>
-    <sheet name="adult_intake" sheetId="23" r:id="rId10"/>
-    <sheet name="warehouses" sheetId="7" r:id="rId11"/>
-    <sheet name="unrwa_stocks" sheetId="9" r:id="rId12"/>
-    <sheet name="private_stores" sheetId="11" r:id="rId13"/>
-    <sheet name="prop_agri" sheetId="18" r:id="rId14"/>
-    <sheet name="specialised_food" sheetId="3" r:id="rId15"/>
-    <sheet name="trucks_to_north" sheetId="4" r:id="rId16"/>
-    <sheet name="boats_airdrops" sheetId="10" r:id="rId17"/>
+    <sheet name="kg_pallet" sheetId="25" r:id="rId10"/>
+    <sheet name="adult_intake" sheetId="23" r:id="rId11"/>
+    <sheet name="warehouses" sheetId="7" r:id="rId12"/>
+    <sheet name="unrwa_stocks" sheetId="9" r:id="rId13"/>
+    <sheet name="private_stores" sheetId="11" r:id="rId14"/>
+    <sheet name="prop_agri" sheetId="18" r:id="rId15"/>
+    <sheet name="specialised_food" sheetId="3" r:id="rId16"/>
+    <sheet name="trucks_to_north" sheetId="4" r:id="rId17"/>
+    <sheet name="boats_airdrops" sheetId="10" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">boats_airdrops!$A$1:$K$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">boats_airdrops!$A$1:$K$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="478">
   <si>
     <t>North Gaza</t>
   </si>
@@ -471,21 +472,9 @@
     <t>as of 7 Oct 2023</t>
   </si>
   <si>
-    <t>truck_kg</t>
-  </si>
-  <si>
     <t>mean number of Kg transported by a truck</t>
   </si>
   <si>
-    <t>WFP?</t>
-  </si>
-  <si>
-    <t>pallet_kg</t>
-  </si>
-  <si>
-    <t>mean number of Kg contained in a pallet</t>
-  </si>
-  <si>
     <t>pallet_error_min</t>
   </si>
   <si>
@@ -1326,6 +1315,9 @@
     <t>ending date of analysis period</t>
   </si>
   <si>
+    <t>31Aug2024</t>
+  </si>
+  <si>
     <t>Kcal equivalent of existing UNRWA stock in Gaza as of 6 Oct 2023</t>
   </si>
   <si>
@@ -1434,25 +1426,83 @@
     <t>&gt;=70yo</t>
   </si>
   <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>extent of underreporting after 6 May 2024</t>
-  </si>
-  <si>
-    <t>30Sep2024</t>
+    <t>kg_pallet</t>
+  </si>
+  <si>
+    <t>https://www.unrwa.org/sites/default/files/annex_5_palletization_unrwa_labelling_requirements_v2.pdf</t>
+  </si>
+  <si>
+    <t>mean of 25 Kg/bag x 45 bags and 50 Kg/bag x 24 bags</t>
+  </si>
+  <si>
+    <t>red lentils</t>
+  </si>
+  <si>
+    <t>50 Kg/bag x 24 bags</t>
+  </si>
+  <si>
+    <t>soybean fortified oil</t>
+  </si>
+  <si>
+    <t>mean of 15L/carton x 66 cartons and 20L/carton x 60 cartons (0.92 Kg/L)</t>
+  </si>
+  <si>
+    <t>9.6 Kg/carton x 66 cartons</t>
+  </si>
+  <si>
+    <t>https://s3.eu-west-1.amazonaws.com/logcluster-web-prod-files/public/2024-07/Logistics%20Cluster_Palestine_Meeting%20Minutes_240627_0.pdf</t>
+  </si>
+  <si>
+    <t>https://api.godocs.wfp.org/api/documents/4578182b0aac4459a73e02c8ecedbbba/download/?_ga=2.174016805.762827330.1745920682-872208278.1741701078</t>
+  </si>
+  <si>
+    <t>"around 3,330 trucks carrying over 56,600 mt of food" delivered (7 Oct 2023 to 19 Mar 2024), i.e. ~17 MT/truck. Over the same period, UNRWA database contains 2815 WFP trucks carrying 67,796 pallets, i.e. 24.1 pallets/truck. Therefore, mean 705.9 Kg/pallet.</t>
+  </si>
+  <si>
+    <t>https://www.oxfamitalia.org/wp-content/uploads/2013/07/Gaza_book_LOW_final.pdf</t>
+  </si>
+  <si>
+    <t>From Figure 3, weighted for relative proportion in each wealth category = 17%</t>
+  </si>
+  <si>
+    <t>maximum load</t>
+  </si>
+  <si>
+    <t>WFP (7 Oct 2023 to 19 Mar 2024): "around 3,330 trucks carrying over 56,600 mt of food" delivered. Note that this parameter has minimal influence as it is only used to impute a few observations where the transport unit is neither pallets nor weight.</t>
+  </si>
+  <si>
+    <t>kg_truck</t>
+  </si>
+  <si>
+    <t>maximum load = 750; Egyptian Red Crescent SOP that Egypt corridor users should follow</t>
+  </si>
+  <si>
+    <t>https://logcluster.org/en/document/palestine-logistics-cluster-meeting-minutes-7-december-2023</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>"no limitation on pallet weight" according to COGAT in Nitzana; assume 1100</t>
+  </si>
+  <si>
+    <t>sensitivity?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1613,7 +1663,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1816,7 +1866,11 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1826,21 +1880,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2134,10 +2174,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2220,7 @@
         <v>133</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="38" t="s">
@@ -2192,11 +2232,11 @@
         <v>134</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="38" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,132 +2253,98 @@
         <v>2226544</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="D6" s="35">
-        <v>14500</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="35">
-        <v>637.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>144</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D8" s="35">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>145</v>
-      </c>
       <c r="D9" s="35">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>149</v>
+        <v>420</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="35">
-        <v>5.6</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="41">
+        <v>38349604452</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41">
-        <v>38349604452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="78">
-        <v>0.44</v>
+      <c r="D11" s="42" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2347,6 +2353,1341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3817CBF0-EB1A-47F4-B780-BA230BD29BAB}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="136.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="65">
+        <v>1162</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="65">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="65">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="65">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="66">
+        <v>1007</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="66">
+        <v>633.6</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="66">
+        <v>705.9</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="65">
+        <v>637.5</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="65">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="67"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="67"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="61"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="67"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="61"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="67"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="67"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="67"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="61"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="67"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="67"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="67"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="67"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="67"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="61"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="67"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="67"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="67"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="61"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="67"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="61"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="67"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="61"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="67"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="67"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="67"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="61"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="61"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="61"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="61"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="61"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="61"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="67"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="67"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8F1E1D10-4C8F-4E28-AC0D-C7E9B01B4D66}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{F11A2DFE-1417-4631-BB35-6B865585946F}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{D83FDCB7-D5F2-462B-8F7D-7DE44C3D6907}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856E8601-5B6C-488F-8CF3-CDA1BE0EE8D4}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2373,39 +3714,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>457</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>87</v>
@@ -2437,7 +3778,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>88</v>
@@ -2469,7 +3810,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>87</v>
@@ -2501,7 +3842,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>88</v>
@@ -2533,7 +3874,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>87</v>
@@ -2565,7 +3906,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>88</v>
@@ -2597,7 +3938,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>87</v>
@@ -2629,7 +3970,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>88</v>
@@ -2664,7 +4005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0739C29-9F97-4938-9854-8ABACF075434}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -2672,7 +4013,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAB3CC6-8DEF-4368-BA9B-FFF9CF6D3BB6}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -3522,7 +4863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F264637E-25BD-4D56-8F08-B974802420B1}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -3662,15 +5003,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD23253B-7297-4988-93D1-DF9E06710C86}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3693,30 +5034,30 @@
         <v>128</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
@@ -3725,20 +5066,24 @@
         <v>45206</v>
       </c>
       <c r="E2" s="57">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F2" s="57">
-        <v>0.15</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C3" s="46">
         <v>2</v>
@@ -3747,20 +5092,20 @@
         <v>45237</v>
       </c>
       <c r="E3" s="57">
-        <v>0.1</v>
+        <v>0.13419</v>
       </c>
       <c r="F3" s="57">
-        <v>0.15</v>
+        <v>0.19170000000000001</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4" s="46">
         <v>3</v>
@@ -3769,22 +5114,22 @@
         <v>45267</v>
       </c>
       <c r="E4" s="57">
-        <v>0.09</v>
+        <v>0.12838000000000002</v>
       </c>
       <c r="F4" s="57">
-        <v>0.14000000000000001</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C5" s="46">
         <v>4</v>
@@ -3793,22 +5138,22 @@
         <v>45298</v>
       </c>
       <c r="E5" s="57">
-        <v>7.0000000000000007E-2</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="F5" s="57">
-        <v>0.11</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" s="46">
         <v>5</v>
@@ -3817,22 +5162,22 @@
         <v>45329</v>
       </c>
       <c r="E6" s="58">
-        <v>0.06</v>
+        <v>8.0360000000000015E-2</v>
       </c>
       <c r="F6" s="58">
-        <v>0.09</v>
+        <v>0.11480000000000001</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7" s="46">
         <v>6</v>
@@ -3841,20 +5186,20 @@
         <v>45358</v>
       </c>
       <c r="E7" s="58">
-        <v>0.06</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="F7" s="58">
-        <v>0.09</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C8" s="46">
         <v>7</v>
@@ -3863,20 +5208,20 @@
         <v>45389</v>
       </c>
       <c r="E8" s="58">
-        <v>0.05</v>
+        <v>6.6640000000000005E-2</v>
       </c>
       <c r="F8" s="58">
-        <v>0.08</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C9" s="46">
         <v>8</v>
@@ -3885,24 +5230,24 @@
         <v>45419</v>
       </c>
       <c r="E9" s="58">
-        <v>0.04</v>
+        <v>5.9780000000000014E-2</v>
       </c>
       <c r="F9" s="58">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5400000000000018E-2</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C10" s="46">
         <v>9</v>
@@ -3911,20 +5256,20 @@
         <v>45450</v>
       </c>
       <c r="E10" s="58">
-        <v>0.04</v>
+        <v>5.9780000000000014E-2</v>
       </c>
       <c r="F10" s="58">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5400000000000018E-2</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C11" s="46">
         <v>10</v>
@@ -3933,67 +5278,47 @@
         <v>45480</v>
       </c>
       <c r="E11" s="58">
-        <v>0.04</v>
+        <v>5.9780000000000014E-2</v>
       </c>
       <c r="F11" s="58">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5400000000000018E-2</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C12" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="56">
         <v>45511</v>
       </c>
       <c r="E12" s="58">
-        <v>0.04</v>
+        <v>5.9780000000000014E-2</v>
       </c>
       <c r="F12" s="58">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5400000000000018E-2</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="46">
-        <v>12</v>
-      </c>
-      <c r="D13" s="56">
-        <v>45511</v>
-      </c>
-      <c r="E13" s="58">
-        <v>0.04</v>
-      </c>
-      <c r="F13" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{145AE48B-C2CA-44D7-BC0F-3B82F0E26B22}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{022DFAE0-0EB9-4E48-9843-A82F7F3F6A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55F1B03-761B-4B96-B387-22947EF95FF6}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4639,10 +5964,10 @@
         <v>0.1</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4675,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +6009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF340BEF-92BD-4B1C-A25F-CB4A3AC08BAD}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4731,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>7</v>
@@ -4748,7 +6073,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>8</v>
@@ -4765,7 +6090,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>9</v>
@@ -4782,7 +6107,7 @@
         <v>84</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>9</v>
@@ -4799,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>8</v>
@@ -4816,7 +6141,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>10</v>
@@ -4833,7 +6158,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>8</v>
@@ -4850,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>8</v>
@@ -4868,7 +6193,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>10</v>
@@ -4885,7 +6210,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>8</v>
@@ -5083,14 +6408,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1504B94E-00CA-4B8B-BB2F-91192364A606}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -5120,7 +6445,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>44</v>
@@ -5155,7 +6480,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>66</v>
@@ -5187,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>66</v>
@@ -5219,7 +6544,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>66</v>
@@ -5251,7 +6576,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>66</v>
@@ -5284,7 +6609,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>46</v>
@@ -5321,7 +6646,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>66</v>
@@ -5353,7 +6678,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>66</v>
@@ -5385,7 +6710,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>70</v>
@@ -5422,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>66</v>
@@ -5454,7 +6779,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>66</v>
@@ -5486,7 +6811,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>66</v>
@@ -5518,7 +6843,7 @@
         <v>126</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>46</v>
@@ -5555,7 +6880,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>105</v>
@@ -5592,7 +6917,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>70</v>
@@ -5629,7 +6954,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>66</v>
@@ -5662,7 +6987,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>46</v>
@@ -5699,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>70</v>
@@ -5736,7 +7061,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>66</v>
@@ -5768,7 +7093,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>66</v>
@@ -5800,7 +7125,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>66</v>
@@ -5832,7 +7157,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>46</v>
@@ -5869,7 +7194,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>46</v>
@@ -5907,7 +7232,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>46</v>
@@ -5945,7 +7270,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>46</v>
@@ -5982,7 +7307,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>66</v>
@@ -6014,7 +7339,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>66</v>
@@ -6046,7 +7371,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>46</v>
@@ -6083,7 +7408,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>66</v>
@@ -6116,7 +7441,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>46</v>
@@ -6139,7 +7464,7 @@
         <v>119</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
@@ -6153,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>46</v>
@@ -6173,10 +7498,10 @@
         <v>121</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
@@ -6191,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>46</v>
@@ -6211,10 +7536,10 @@
         <v>121</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
@@ -6229,7 +7554,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>46</v>
@@ -6249,10 +7574,10 @@
         <v>121</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
@@ -6267,7 +7592,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>46</v>
@@ -6287,10 +7612,10 @@
         <v>121</v>
       </c>
       <c r="J34" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="K34" s="25" t="s">
         <v>392</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -6305,7 +7630,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>46</v>
@@ -6325,10 +7650,10 @@
         <v>121</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -6342,7 +7667,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>66</v>
@@ -6360,7 +7685,7 @@
         <v>118</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -6374,7 +7699,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>66</v>
@@ -6392,7 +7717,7 @@
         <v>118</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,7 +7731,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -6424,7 +7749,7 @@
         <v>118</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -6438,7 +7763,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>66</v>
@@ -6456,7 +7781,7 @@
         <v>118</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,7 +7795,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>46</v>
@@ -6493,7 +7818,7 @@
         <v>118</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -6507,7 +7832,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>66</v>
@@ -6525,7 +7850,7 @@
         <v>118</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -6539,7 +7864,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>66</v>
@@ -6557,7 +7882,7 @@
         <v>118</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6571,7 +7896,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>46</v>
@@ -6594,7 +7919,7 @@
         <v>118</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -6608,7 +7933,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>66</v>
@@ -6626,7 +7951,7 @@
         <v>118</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -6640,7 +7965,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>66</v>
@@ -6658,7 +7983,7 @@
         <v>118</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -6672,7 +7997,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>66</v>
@@ -6690,7 +8015,7 @@
         <v>118</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6704,7 +8029,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>66</v>
@@ -6722,7 +8047,7 @@
         <v>118</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6736,7 +8061,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>46</v>
@@ -6759,7 +8084,7 @@
         <v>118</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -6773,7 +8098,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>66</v>
@@ -6791,7 +8116,7 @@
         <v>118</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -6805,7 +8130,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>66</v>
@@ -6823,7 +8148,7 @@
         <v>118</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -6837,7 +8162,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>66</v>
@@ -6855,7 +8180,7 @@
         <v>118</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -6869,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>66</v>
@@ -6887,7 +8212,7 @@
         <v>118</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -6901,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>66</v>
@@ -6919,7 +8244,7 @@
         <v>118</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -6933,7 +8258,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>66</v>
@@ -6951,7 +8276,7 @@
         <v>118</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -6965,7 +8290,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>66</v>
@@ -6983,7 +8308,7 @@
         <v>118</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -6997,7 +8322,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>66</v>
@@ -7015,7 +8340,7 @@
         <v>118</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7029,7 +8354,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>66</v>
@@ -7047,7 +8372,7 @@
         <v>118</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7061,7 +8386,7 @@
         <v>39</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>46</v>
@@ -7084,7 +8409,7 @@
         <v>118</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7098,7 +8423,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>105</v>
@@ -7121,7 +8446,7 @@
         <v>118</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7135,7 +8460,7 @@
         <v>126</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>46</v>
@@ -7152,13 +8477,13 @@
         <v>6642500000</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>118</v>
       </c>
       <c r="K60" s="75" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7172,7 +8497,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>46</v>
@@ -7189,13 +8514,13 @@
         <v>2657000000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>118</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7210,7 +8535,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>46</v>
@@ -7227,13 +8552,13 @@
         <v>7189842000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>118</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7285,7 +8610,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B2" s="61">
         <v>1320</v>
@@ -7297,7 +8622,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" s="61">
         <v>1980</v>
@@ -7309,7 +8634,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="61">
         <v>2370</v>
@@ -7321,7 +8646,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B5" s="61">
         <v>2700</v>
@@ -7333,7 +8658,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B6" s="61">
         <v>2460</v>
@@ -7345,7 +8670,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B7" s="61">
         <v>2010</v>
@@ -7357,26 +8682,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="61">
         <v>285</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="61">
         <v>500</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -7408,13 +8733,13 @@
         <v>63</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7425,7 +8750,7 @@
         <v>1193512</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -7437,10 +8762,10 @@
         <v>807000</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,10 +8776,10 @@
         <v>500000</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,10 +8790,10 @@
         <v>300000</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,10 +8804,10 @@
         <v>250000</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7521,7 +8846,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="48">
         <v>1.3289654280355565E-3</v>
@@ -7532,7 +8857,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B3" s="48">
         <v>1.4616823202236291E-2</v>
@@ -7543,7 +8868,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B4" s="48">
         <v>6.1116241134242126E-2</v>
@@ -7554,7 +8879,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" s="48">
         <v>6.5247307037273911E-2</v>
@@ -7565,7 +8890,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B6" s="48">
         <v>6.3623265473307516E-2</v>
@@ -7576,7 +8901,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B7" s="48">
         <v>5.4143551620807855E-2</v>
@@ -7587,7 +8912,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="48">
         <v>4.4047187030662766E-2</v>
@@ -7598,7 +8923,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B9" s="48">
         <v>4.365150655006144E-2</v>
@@ -7609,7 +8934,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B10" s="48">
         <v>3.9326417982308008E-2</v>
@@ -7620,7 +8945,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="48">
         <v>2.8814162217319757E-2</v>
@@ -7631,7 +8956,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B12" s="48">
         <v>2.205615518938768E-2</v>
@@ -7642,7 +8967,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B13" s="48">
         <v>1.8556561199778672E-2</v>
@@ -7653,7 +8978,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B14" s="48">
         <v>1.4039695599997126E-2</v>
@@ -7664,7 +8989,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B15" s="48">
         <v>1.2913735367457369E-2</v>
@@ -7675,7 +9000,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B16" s="48">
         <v>9.2466171789104545E-3</v>
@@ -7686,7 +9011,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B17" s="48">
         <v>5.9837128752003102E-3</v>
@@ -7697,7 +9022,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B18" s="48">
         <v>4.1687925322832159E-3</v>
@@ -7708,7 +9033,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B19" s="48">
         <v>2.2159903419829118E-3</v>
@@ -7719,7 +9044,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B20" s="48">
         <v>1.4789736919638688E-3</v>
@@ -7730,7 +9055,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="49">
@@ -7739,7 +9064,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="49">
@@ -7774,10 +9099,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>6</v>
@@ -7881,7 +9206,7 @@
         <v>3.7178452989154794E-2</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +9379,7 @@
         <v>0.7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>96</v>
@@ -8071,7 +9396,7 @@
         <v>0.74</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>96</v>
@@ -8205,7 +9530,7 @@
         <v>0.49</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>96</v>
@@ -8222,7 +9547,7 @@
         <v>0.61</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>96</v>
@@ -8263,10 +9588,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8368,7 +9693,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>61</v>
@@ -8379,10 +9704,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C2" s="61">
         <v>520</v>
@@ -8391,10 +9716,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C3" s="61">
         <v>3420</v>
@@ -8403,10 +9728,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" s="61">
         <v>4280</v>
@@ -8415,10 +9740,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C5" s="61">
         <v>5200</v>
@@ -8427,10 +9752,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C6" s="61">
         <v>4950</v>
@@ -8439,10 +9764,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" s="61">
         <v>890</v>
@@ -8451,10 +9776,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="61">
         <v>3330</v>
@@ -8463,10 +9788,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C9" s="61">
         <v>4500</v>
@@ -8475,10 +9800,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C10" s="61">
         <v>2700</v>
@@ -8487,10 +9812,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C11" s="61">
         <v>3470</v>
@@ -8499,10 +9824,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C12" s="61">
         <v>3670</v>
@@ -8511,10 +9836,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" s="61">
         <v>3880</v>
@@ -8523,10 +9848,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" s="61">
         <v>3330</v>
@@ -8535,10 +9860,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C15" s="61">
         <v>1190</v>
@@ -8547,10 +9872,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C16" s="61">
         <v>670</v>
@@ -8559,10 +9884,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C17" s="61">
         <v>3330</v>
@@ -8571,22 +9896,22 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C19" s="61">
         <v>1660</v>
@@ -8595,10 +9920,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C20" s="61">
         <v>3330</v>
@@ -8607,24 +9932,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C21" s="61">
         <v>2110</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C22" s="61">
         <v>530</v>
@@ -8633,10 +9958,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C23" s="61">
         <v>1400</v>
@@ -8645,10 +9970,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C24" s="61">
         <v>530</v>
@@ -8657,10 +9982,10 @@
     </row>
     <row r="25" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C25" s="61">
         <v>480</v>
@@ -8669,24 +9994,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C26" s="61">
         <v>4260</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C27" s="61">
         <v>3550</v>
@@ -8695,10 +10020,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C28" s="61">
         <v>1650</v>
@@ -8707,24 +10032,24 @@
     </row>
     <row r="29" spans="1:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C29" s="61">
         <v>310</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C30" s="61">
         <v>60</v>
@@ -8733,10 +10058,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C31" s="61">
         <v>3780</v>
@@ -8745,10 +10070,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C32" s="61">
         <v>5500</v>
@@ -8757,10 +10082,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C33" s="61">
         <v>5500</v>
@@ -8769,38 +10094,38 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C34" s="61">
         <v>9000</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C35" s="61">
         <v>4380</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C36" s="61">
         <v>20</v>
@@ -8809,10 +10134,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C37" s="61">
         <v>3000</v>
@@ -8821,22 +10146,22 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C39" s="61">
         <v>8840</v>
@@ -8845,10 +10170,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C40" s="61">
         <v>3650</v>
@@ -8857,10 +10182,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C41" s="61">
         <v>3400</v>
@@ -8869,10 +10194,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C42" s="61">
         <v>3470</v>
@@ -8881,10 +10206,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C43" s="61">
         <v>4615</v>
@@ -8893,10 +10218,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C44" s="61">
         <v>5200</v>
@@ -8905,10 +10230,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C45" s="61">
         <v>2800</v>
@@ -8917,10 +10242,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C46" s="61">
         <v>3760</v>
@@ -8929,10 +10254,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C47" s="61">
         <v>260</v>
@@ -8941,10 +10266,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C48" s="61">
         <v>1430</v>
@@ -8953,10 +10278,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C49" s="61">
         <v>3330</v>
@@ -8965,10 +10290,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C50" s="61">
         <v>2770</v>
@@ -8977,10 +10302,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C51" s="61">
         <v>3640</v>
@@ -8989,82 +10314,82 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C52" s="63"/>
       <c r="D52" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C58" s="61">
         <v>3500</v>
@@ -9073,10 +10398,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C59" s="61">
         <v>1650</v>
@@ -9085,10 +10410,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C60" s="61">
         <v>2770</v>
@@ -9097,10 +10422,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C61" s="61">
         <v>2500</v>
@@ -9109,10 +10434,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C62" s="61">
         <v>330</v>
@@ -9121,10 +10446,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C63" s="61">
         <v>640</v>
@@ -9133,10 +10458,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C64" s="61">
         <v>500</v>
@@ -9145,10 +10470,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C65" s="61">
         <v>600</v>
@@ -9157,10 +10482,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C66" s="61">
         <v>1500</v>
@@ -9169,10 +10494,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C67" s="61">
         <v>670</v>
@@ -9181,10 +10506,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C68" s="61">
         <v>310</v>
@@ -9193,10 +10518,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C69" s="61">
         <v>4690</v>
@@ -9205,10 +10530,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C70" s="61">
         <v>100</v>
@@ -9217,10 +10542,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C71" s="61">
         <v>3040</v>
@@ -9229,10 +10554,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C72" s="61">
         <v>1660</v>
@@ -9241,10 +10566,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C73" s="61">
         <v>4500</v>
@@ -9253,10 +10578,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C74" s="61">
         <v>2780</v>
@@ -9265,10 +10590,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C75" s="61">
         <v>450</v>
@@ -9277,10 +10602,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C76" s="61">
         <v>340</v>
@@ -9289,10 +10614,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C77" s="61">
         <v>640</v>
@@ -9301,10 +10626,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C78" s="61">
         <v>3330</v>
@@ -9313,10 +10638,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C79" s="61">
         <v>290</v>
@@ -9325,10 +10650,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C80" s="61">
         <v>3430</v>
@@ -9337,24 +10662,24 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C81" s="61">
         <v>640</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C82" s="61">
         <v>2110</v>
@@ -9363,10 +10688,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C83" s="61">
         <v>2500</v>
@@ -9375,10 +10700,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C84" s="61">
         <v>360</v>
@@ -9387,10 +10712,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C85" s="61">
         <v>4950</v>
@@ -9399,10 +10724,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C86" s="61">
         <v>150</v>
@@ -9411,10 +10736,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C87" s="61">
         <v>4500</v>
@@ -9423,10 +10748,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C88" s="61">
         <v>5670</v>
@@ -9435,10 +10760,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C89" s="61">
         <v>3840</v>
@@ -9447,10 +10772,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C90" s="61">
         <v>8840</v>
@@ -9459,10 +10784,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C91" s="61">
         <v>330</v>
@@ -9471,10 +10796,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C92" s="61">
         <v>1300</v>
@@ -9483,10 +10808,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C93" s="61">
         <v>400</v>
@@ -9495,10 +10820,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C94" s="61">
         <v>470</v>
@@ -9507,10 +10832,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C95" s="61">
         <v>3710</v>
@@ -9519,10 +10844,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C96" s="61">
         <v>5670</v>
@@ -9531,10 +10856,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C97" s="61">
         <v>570</v>
@@ -9543,10 +10868,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C98" s="61">
         <v>3410</v>
@@ -9555,10 +10880,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C99" s="61">
         <v>500</v>
@@ -9567,10 +10892,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C100" s="61">
         <v>5600</v>
@@ -9579,10 +10904,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C101" s="61">
         <v>830</v>
@@ -9591,10 +10916,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C102" s="61">
         <v>770</v>
@@ -9603,10 +10928,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C103" s="61">
         <v>2990</v>
@@ -9615,10 +10940,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C104" s="61">
         <v>3600</v>
@@ -9627,10 +10952,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C105" s="61">
         <v>3150</v>
@@ -9639,10 +10964,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C106" s="61">
         <v>3150</v>
@@ -9651,10 +10976,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C107" s="61">
         <v>0</v>
@@ -9663,10 +10988,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C108" s="61">
         <v>1720</v>
@@ -9675,10 +11000,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C109" s="61">
         <v>1000</v>
@@ -9688,10 +11013,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C110" s="61">
         <v>3430</v>
@@ -9700,10 +11025,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C111" s="61">
         <v>5730</v>
@@ -9712,10 +11037,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C112" s="61">
         <v>420</v>
@@ -9724,10 +11049,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C113" s="61">
         <v>3000</v>
@@ -9736,10 +11061,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C114" s="61">
         <v>3810</v>
@@ -9748,10 +11073,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C115" s="61">
         <v>330</v>
@@ -9760,10 +11085,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C116" s="61">
         <v>3840</v>
@@ -9772,10 +11097,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C117" s="61">
         <v>860</v>
@@ -9784,10 +11109,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C118" s="61">
         <v>5950</v>
@@ -9796,10 +11121,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C119" s="61">
         <v>0</v>
@@ -9808,10 +11133,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C120" s="61">
         <v>1010</v>
@@ -9820,10 +11145,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C121" s="61">
         <v>820</v>
@@ -9832,10 +11157,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C122" s="61">
         <v>370</v>
@@ -9844,10 +11169,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C123" s="61">
         <v>180</v>
@@ -9856,10 +11181,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C124" s="61">
         <v>2960</v>
@@ -9868,10 +11193,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C125" s="61">
         <v>1570</v>
@@ -9880,10 +11205,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C126" s="61">
         <v>2020</v>
@@ -9892,10 +11217,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C127" s="61">
         <v>8840</v>
@@ -9904,10 +11229,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C128" s="61">
         <v>150</v>
@@ -9916,10 +11241,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C129" s="61">
         <v>300</v>
@@ -9928,10 +11253,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C130" s="61">
         <v>300</v>
@@ -9940,10 +11265,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C131" s="61">
         <v>2950</v>
@@ -9952,10 +11277,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C132" s="61">
         <v>780</v>
@@ -9964,10 +11289,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C133" s="61">
         <v>3400</v>
@@ -10007,10 +11332,10 @@
         <v>34</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>59</v>
@@ -10033,10 +11358,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E2" s="65">
         <v>50</v>
@@ -10045,7 +11370,7 @@
         <v>3640</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10056,10 +11381,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E3" s="65">
         <v>2</v>
@@ -10068,7 +11393,7 @@
         <v>1382</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10079,10 +11404,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E4" s="65">
         <v>1.84</v>
@@ -10091,7 +11416,7 @@
         <v>8840</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10102,10 +11427,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E5" s="65">
         <v>1</v>
@@ -10114,7 +11439,7 @@
         <v>3330</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10125,10 +11450,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E6" s="65">
         <v>1</v>
@@ -10137,7 +11462,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10148,10 +11473,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E7" s="66">
         <v>100</v>
@@ -10160,7 +11485,7 @@
         <v>3640</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10171,10 +11496,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E8" s="66">
         <v>5</v>
@@ -10183,7 +11508,7 @@
         <v>1382</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10194,10 +11519,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E9" s="66">
         <v>5.52</v>
@@ -10206,7 +11531,7 @@
         <v>8840</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -10217,10 +11542,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E10" s="66">
         <v>4</v>
@@ -10229,7 +11554,7 @@
         <v>3330</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10240,10 +11565,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E11" s="66">
         <v>2</v>
@@ -10252,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10263,10 +11588,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E12" s="65">
         <v>200</v>
@@ -10275,7 +11600,7 @@
         <v>3640</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10286,10 +11611,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E13" s="65">
         <v>9</v>
@@ -10298,7 +11623,7 @@
         <v>1382</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10309,10 +11634,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E14" s="65">
         <v>8.2799999999999994</v>
@@ -10321,7 +11646,7 @@
         <v>8840</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10332,10 +11657,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E15" s="65">
         <v>7</v>
@@ -10344,7 +11669,7 @@
         <v>3330</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10355,10 +11680,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E16" s="65">
         <v>3</v>
@@ -10367,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10378,10 +11703,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E17" s="65">
         <v>250</v>
@@ -10390,7 +11715,7 @@
         <v>3640</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10401,10 +11726,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E18" s="65">
         <v>12</v>
@@ -10413,7 +11738,7 @@
         <v>1382</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10424,10 +11749,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E19" s="65">
         <v>11.04</v>
@@ -10436,7 +11761,7 @@
         <v>8840</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10447,10 +11772,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E20" s="65">
         <v>9</v>
@@ -10459,7 +11784,7 @@
         <v>3330</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10470,10 +11795,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E21" s="65">
         <v>4</v>
@@ -10482,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10493,10 +11818,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E22" s="65">
         <v>25</v>
@@ -10514,10 +11839,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E23" s="65">
         <v>1</v>
@@ -10535,10 +11860,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E24" s="65">
         <v>1</v>
@@ -10556,10 +11881,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E25" s="65">
         <v>0.5</v>
@@ -10577,10 +11902,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E26" s="65">
         <v>2</v>
@@ -10598,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E27" s="65">
         <v>0.5</v>
@@ -10619,10 +11944,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E28" s="65">
         <v>0.8</v>
@@ -10640,10 +11965,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E29" s="65">
         <v>2.8</v>
@@ -10652,7 +11977,7 @@
         <v>3330</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10663,10 +11988,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E30" s="65">
         <v>3.52</v>
@@ -10675,7 +12000,7 @@
         <v>2110</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10686,10 +12011,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E31" s="65">
         <v>4.4000000000000004</v>
@@ -10698,7 +12023,7 @@
         <v>530</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10709,10 +12034,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E32" s="65">
         <v>4</v>
@@ -10721,7 +12046,7 @@
         <v>1700</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10732,10 +12057,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E33" s="65">
         <v>1.5</v>
@@ -10744,21 +12069,21 @@
         <v>4690</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B34" s="67">
         <v>1</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E34" s="65">
         <v>0.68</v>
@@ -10770,16 +12095,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B35" s="67">
         <v>1</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E35" s="65">
         <v>0.4</v>
@@ -10791,16 +12116,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B36" s="67">
         <v>1</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E36" s="65">
         <v>5</v>
@@ -10812,16 +12137,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B37" s="67">
         <v>1</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E37" s="65">
         <v>1</v>
@@ -10833,16 +12158,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B38" s="67">
         <v>1</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E38" s="65">
         <v>1.2</v>
@@ -10854,16 +12179,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B39" s="67">
         <v>1</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E39" s="65">
         <v>1</v>
@@ -10875,16 +12200,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B40" s="67">
         <v>1</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E40" s="65">
         <v>0.8</v>
@@ -10896,16 +12221,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B41" s="61">
         <v>1</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E41" s="65">
         <v>1.472</v>
@@ -10917,16 +12242,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B42" s="61">
         <v>1</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E42" s="65">
         <v>0.4</v>
@@ -10938,16 +12263,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B43" s="61">
         <v>1</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E43" s="65">
         <v>0.4</v>
@@ -10959,16 +12284,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B44" s="61">
         <v>1</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E44" s="65">
         <v>2</v>
@@ -10980,16 +12305,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B45" s="61">
         <v>1</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E45" s="65">
         <v>0.4</v>
@@ -11001,16 +12326,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B46" s="67">
         <v>1</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E46" s="65">
         <v>0.34</v>
@@ -11022,16 +12347,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B47" s="67">
         <v>1</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E47" s="65">
         <v>1.84</v>
@@ -11049,10 +12374,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E48" s="65">
         <v>0.4</v>
@@ -11061,7 +12386,7 @@
         <v>2780</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -11072,10 +12397,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E49" s="65">
         <v>0.8</v>
@@ -11084,7 +12409,7 @@
         <v>3330</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -11095,10 +12420,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E50" s="65">
         <v>0.66</v>
@@ -11107,7 +12432,7 @@
         <v>1660</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -11118,10 +12443,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E51" s="65">
         <v>0.8</v>
@@ -11130,7 +12455,7 @@
         <v>670</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -11141,10 +12466,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E52" s="65">
         <v>0.34</v>
@@ -11153,7 +12478,7 @@
         <v>1570</v>
       </c>
       <c r="G52" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11164,10 +12489,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E53" s="65">
         <v>0.34</v>
@@ -11176,7 +12501,7 @@
         <v>2550</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -11187,10 +12512,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E54" s="65">
         <v>0.8</v>
@@ -11199,7 +12524,7 @@
         <v>500</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11210,10 +12535,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E55" s="65">
         <v>0.7</v>
@@ -11222,7 +12547,7 @@
         <v>2800</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11233,10 +12558,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E56" s="65">
         <v>1.84</v>
@@ -11245,7 +12570,7 @@
         <v>3470</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -11256,10 +12581,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E57" s="65">
         <v>0.66</v>
@@ -11268,7 +12593,7 @@
         <v>2960</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11279,10 +12604,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E58" s="65">
         <v>0.05</v>
@@ -11291,7 +12616,7 @@
         <v>2700</v>
       </c>
       <c r="G58" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11302,10 +12627,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E59" s="65">
         <v>0.4</v>
@@ -11314,7 +12639,7 @@
         <v>5950</v>
       </c>
       <c r="G59" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11325,10 +12650,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E60" s="65">
         <v>0.89600000000000002</v>
@@ -11337,7 +12662,7 @@
         <v>3470</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11348,10 +12673,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E61" s="65">
         <v>0.6</v>
@@ -11360,7 +12685,7 @@
         <v>4690</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11371,10 +12696,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E62" s="65">
         <v>0.56000000000000005</v>
@@ -11383,7 +12708,7 @@
         <v>1570</v>
       </c>
       <c r="G62" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -11394,10 +12719,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E63" s="65">
         <v>0.4</v>
@@ -11406,7 +12731,7 @@
         <v>3040</v>
       </c>
       <c r="G63" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11417,10 +12742,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E64" s="65">
         <v>0.7</v>
@@ -11429,7 +12754,7 @@
         <v>2800</v>
       </c>
       <c r="G64" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11440,10 +12765,10 @@
         <v>2</v>
       </c>
       <c r="C65" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E65" s="65">
         <v>1.8</v>
@@ -11452,7 +12777,7 @@
         <v>2700</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11463,10 +12788,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E66" s="65">
         <v>0.4</v>
@@ -11475,7 +12800,7 @@
         <v>2020</v>
       </c>
       <c r="G66" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11486,10 +12811,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E67" s="65">
         <v>0.8</v>
@@ -11498,7 +12823,7 @@
         <v>150</v>
       </c>
       <c r="G67" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11509,10 +12834,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E68" s="65">
         <v>1.6</v>
@@ -11521,7 +12846,7 @@
         <v>310</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -11532,10 +12857,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E69" s="65">
         <v>0.4</v>
@@ -11544,7 +12869,7 @@
         <v>1400</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11555,10 +12880,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E70" s="65">
         <v>0.4</v>
@@ -11567,7 +12892,7 @@
         <v>1400</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -11578,10 +12903,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E71" s="65">
         <v>0.4</v>
@@ -11590,7 +12915,7 @@
         <v>1400</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -11601,10 +12926,10 @@
         <v>2</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E72" s="65">
         <v>0.8</v>
@@ -11613,7 +12938,7 @@
         <v>980</v>
       </c>
       <c r="G72" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -11624,10 +12949,10 @@
         <v>2</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E73" s="65">
         <v>0.4</v>
@@ -11636,7 +12961,7 @@
         <v>1400</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -11647,10 +12972,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E74" s="65">
         <v>0.4</v>
@@ -11659,7 +12984,7 @@
         <v>1400</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -11670,10 +12995,10 @@
         <v>2</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E75" s="65">
         <v>1.6</v>
@@ -11682,7 +13007,7 @@
         <v>3300</v>
       </c>
       <c r="G75" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -11693,10 +13018,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E76" s="65">
         <v>0.8</v>
@@ -11705,7 +13030,7 @@
         <v>3600</v>
       </c>
       <c r="G76" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -11716,10 +13041,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E77" s="65">
         <v>1.6</v>
@@ -11728,7 +13053,7 @@
         <v>1660</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -11739,10 +13064,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E78" s="65">
         <v>2.4000000000000004</v>
@@ -11751,7 +13076,7 @@
         <v>1650</v>
       </c>
       <c r="G78" s="61" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11762,10 +13087,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E79" s="65">
         <v>0.4</v>
@@ -11774,7 +13099,7 @@
         <v>330</v>
       </c>
       <c r="G79" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -11785,10 +13110,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E80" s="65">
         <v>0.8</v>
@@ -11797,7 +13122,7 @@
         <v>150</v>
       </c>
       <c r="G80" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -11808,10 +13133,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E81" s="65">
         <v>0.1</v>
@@ -11820,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11831,10 +13156,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E82" s="65">
         <v>0.03</v>
@@ -11843,7 +13168,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11854,10 +13179,10 @@
         <v>2</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E83" s="65">
         <v>3.5000000000000003E-2</v>
@@ -11866,7 +13191,7 @@
         <v>3840</v>
       </c>
       <c r="G83" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11877,10 +13202,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E84" s="65">
         <v>0.48</v>
@@ -11889,7 +13214,7 @@
         <v>3040</v>
       </c>
       <c r="G84" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11900,10 +13225,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E85" s="65">
         <v>0.7</v>
@@ -11912,7 +13237,7 @@
         <v>2800</v>
       </c>
       <c r="G85" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -11923,10 +13248,10 @@
         <v>3</v>
       </c>
       <c r="C86" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E86" s="65">
         <v>4</v>
@@ -11935,7 +13260,7 @@
         <v>3640</v>
       </c>
       <c r="G86" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -11946,10 +13271,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E87" s="65">
         <v>0.1</v>
@@ -11958,7 +13283,7 @@
         <v>2950</v>
       </c>
       <c r="G87" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -11969,10 +13294,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E88" s="65">
         <v>0.45</v>
@@ -11981,7 +13306,7 @@
         <v>8840</v>
       </c>
       <c r="G88" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -11992,10 +13317,10 @@
         <v>3</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E89" s="65">
         <v>0.9</v>
@@ -12004,7 +13329,7 @@
         <v>8840</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -12015,10 +13340,10 @@
         <v>3</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E90" s="65">
         <v>0.5</v>
@@ -12027,7 +13352,7 @@
         <v>3330</v>
       </c>
       <c r="G90" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -12038,10 +13363,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E91" s="65">
         <v>1</v>
@@ -12050,7 +13375,7 @@
         <v>3840</v>
       </c>
       <c r="G91" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -12061,10 +13386,10 @@
         <v>3</v>
       </c>
       <c r="C92" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E92" s="65">
         <v>0.4</v>
@@ -12073,7 +13398,7 @@
         <v>1190</v>
       </c>
       <c r="G92" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -12084,10 +13409,10 @@
         <v>3</v>
       </c>
       <c r="C93" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E93" s="65">
         <v>0.4</v>
@@ -12096,7 +13421,7 @@
         <v>5950</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -12107,10 +13432,10 @@
         <v>3</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E94" s="65">
         <v>0.1</v>
@@ -12119,7 +13444,7 @@
         <v>3000</v>
       </c>
       <c r="G94" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -12130,10 +13455,10 @@
         <v>3</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E95" s="65">
         <v>0.2</v>
@@ -12142,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -12153,10 +13478,10 @@
         <v>3</v>
       </c>
       <c r="C96" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E96" s="65">
         <v>0.1</v>
@@ -12165,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -12176,10 +13501,10 @@
         <v>3</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E97" s="65">
         <v>0.2</v>
@@ -12188,7 +13513,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -12199,10 +13524,10 @@
         <v>3</v>
       </c>
       <c r="C98" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E98" s="65">
         <v>0.18</v>
@@ -12211,7 +13536,7 @@
         <v>5670</v>
       </c>
       <c r="G98" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -12222,10 +13547,10 @@
         <v>3</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E99" s="65">
         <v>0.224</v>
@@ -12234,7 +13559,7 @@
         <v>3470</v>
       </c>
       <c r="G99" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -12245,10 +13570,10 @@
         <v>3</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E100" s="65">
         <v>0.42000000000000004</v>
@@ -12257,7 +13582,7 @@
         <v>1570</v>
       </c>
       <c r="G100" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -12268,10 +13593,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E101" s="65">
         <v>0.375</v>
@@ -12280,7 +13605,7 @@
         <v>1720</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -12291,10 +13616,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E102" s="65">
         <v>1.2000000000000002</v>
@@ -12303,7 +13628,7 @@
         <v>1650</v>
       </c>
       <c r="G102" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -12314,10 +13639,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E103" s="65">
         <v>0.37</v>
@@ -12326,7 +13651,7 @@
         <v>3000</v>
       </c>
       <c r="G103" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -12337,10 +13662,10 @@
         <v>3</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E104" s="65">
         <v>0.5</v>
@@ -12349,7 +13674,7 @@
         <v>3330</v>
       </c>
       <c r="G104" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -12360,10 +13685,10 @@
         <v>3</v>
       </c>
       <c r="C105" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E105" s="65">
         <v>0.5</v>
@@ -12372,7 +13697,7 @@
         <v>3330</v>
       </c>
       <c r="G105" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -12383,10 +13708,10 @@
         <v>3</v>
       </c>
       <c r="C106" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E106" s="65">
         <v>0.5</v>
@@ -12395,7 +13720,7 @@
         <v>3430</v>
       </c>
       <c r="G106" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -12406,10 +13731,10 @@
         <v>3</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D107" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E107" s="65">
         <v>1</v>
@@ -12418,7 +13743,7 @@
         <v>3600</v>
       </c>
       <c r="G107" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -12429,10 +13754,10 @@
         <v>3</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D108" s="61" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E108" s="65">
         <v>0.5</v>
@@ -12441,7 +13766,7 @@
         <v>3500</v>
       </c>
       <c r="G108" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -12452,10 +13777,10 @@
         <v>3</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E109" s="65">
         <v>7.1999999999999995E-2</v>
@@ -12464,7 +13789,7 @@
         <v>60</v>
       </c>
       <c r="G109" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -12475,10 +13800,10 @@
         <v>3</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D110" s="61" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E110" s="65">
         <v>0.4</v>
@@ -12487,7 +13812,7 @@
         <v>3420</v>
       </c>
       <c r="G110" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -12498,10 +13823,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D111" s="61" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E111" s="65">
         <v>0.4</v>
@@ -12510,7 +13835,7 @@
         <v>1300</v>
       </c>
       <c r="G111" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -12521,10 +13846,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D112" s="61" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E112" s="65">
         <v>0.1</v>
@@ -12533,7 +13858,7 @@
         <v>100</v>
       </c>
       <c r="G112" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -12544,10 +13869,10 @@
         <v>3</v>
       </c>
       <c r="C113" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E113" s="65">
         <v>0.2</v>
@@ -12556,7 +13881,7 @@
         <v>4690</v>
       </c>
       <c r="G113" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -12567,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="C114" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D114" s="61" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E114" s="65">
         <v>0.3</v>
@@ -12579,7 +13904,7 @@
         <v>4280</v>
       </c>
       <c r="G114" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -12590,10 +13915,10 @@
         <v>3</v>
       </c>
       <c r="C115" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D115" s="61" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E115" s="65">
         <v>0.4</v>
@@ -12602,7 +13927,7 @@
         <v>820</v>
       </c>
       <c r="G115" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -12613,10 +13938,10 @@
         <v>3</v>
       </c>
       <c r="C116" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D116" s="61" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E116" s="65">
         <v>0.4</v>
@@ -12625,7 +13950,7 @@
         <v>3710</v>
       </c>
       <c r="G116" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -12636,10 +13961,10 @@
         <v>3</v>
       </c>
       <c r="C117" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E117" s="65">
         <v>0.5</v>
@@ -12648,7 +13973,7 @@
         <v>3710</v>
       </c>
       <c r="G117" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -12659,10 +13984,10 @@
         <v>3</v>
       </c>
       <c r="C118" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E118" s="65">
         <v>0.5</v>
@@ -12671,7 +13996,7 @@
         <v>2990</v>
       </c>
       <c r="G118" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -12682,10 +14007,10 @@
         <v>3</v>
       </c>
       <c r="C119" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E119" s="65">
         <v>0.25</v>
@@ -12694,7 +14019,7 @@
         <v>3780</v>
       </c>
       <c r="G119" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -12705,10 +14030,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E120" s="65">
         <v>4</v>
@@ -12717,7 +14042,7 @@
         <v>3600</v>
       </c>
       <c r="G120" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -12728,10 +14053,10 @@
         <v>3</v>
       </c>
       <c r="C121" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E121" s="65">
         <v>0.5</v>
@@ -12740,7 +14065,7 @@
         <v>3840</v>
       </c>
       <c r="G121" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -12751,10 +14076,10 @@
         <v>3</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E122" s="65">
         <v>1.8</v>
@@ -12763,7 +14088,7 @@
         <v>8840</v>
       </c>
       <c r="G122" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -12774,10 +14099,10 @@
         <v>3</v>
       </c>
       <c r="C123" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E123" s="65">
         <v>2</v>
@@ -12786,7 +14111,7 @@
         <v>3780</v>
       </c>
       <c r="G123" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -12797,10 +14122,10 @@
         <v>3</v>
       </c>
       <c r="C124" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E124" s="65">
         <v>1.6</v>
@@ -12809,7 +14134,7 @@
         <v>4950</v>
       </c>
       <c r="G124" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -12820,10 +14145,10 @@
         <v>3</v>
       </c>
       <c r="C125" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E125" s="65">
         <v>2</v>
@@ -12832,7 +14157,7 @@
         <v>3430</v>
       </c>
       <c r="G125" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -12843,10 +14168,10 @@
         <v>3</v>
       </c>
       <c r="C126" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E126" s="65">
         <v>2</v>
@@ -12855,7 +14180,7 @@
         <v>4690</v>
       </c>
       <c r="G126" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -12866,10 +14191,10 @@
         <v>3</v>
       </c>
       <c r="C127" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E127" s="65">
         <v>2</v>
@@ -12878,7 +14203,7 @@
         <v>3339</v>
       </c>
       <c r="G127" s="61" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -12889,10 +14214,10 @@
         <v>3</v>
       </c>
       <c r="C128" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E128" s="65">
         <v>6.4</v>
@@ -12901,7 +14226,7 @@
         <v>1190</v>
       </c>
       <c r="G128" s="61" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -12912,10 +14237,10 @@
         <v>3</v>
       </c>
       <c r="C129" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E129" s="65">
         <v>2.66</v>
@@ -12924,7 +14249,7 @@
         <v>1570</v>
       </c>
       <c r="G129" s="61" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -12935,10 +14260,10 @@
         <v>3</v>
       </c>
       <c r="C130" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E130" s="65">
         <v>0.45</v>
@@ -12947,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -12958,10 +14283,10 @@
         <v>3</v>
       </c>
       <c r="C131" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E131" s="65">
         <v>0.45</v>
@@ -12970,7 +14295,7 @@
         <v>2950</v>
       </c>
       <c r="G131" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -12981,10 +14306,10 @@
         <v>2</v>
       </c>
       <c r="C132" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E132" s="65">
         <v>4</v>
@@ -12993,7 +14318,7 @@
         <v>3600</v>
       </c>
       <c r="G132" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -13004,10 +14329,10 @@
         <v>2</v>
       </c>
       <c r="C133" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E133" s="65">
         <v>0.5</v>
@@ -13016,7 +14341,7 @@
         <v>3840</v>
       </c>
       <c r="G133" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -13027,10 +14352,10 @@
         <v>2</v>
       </c>
       <c r="C134" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E134" s="65">
         <v>1.8</v>
@@ -13039,7 +14364,7 @@
         <v>8840</v>
       </c>
       <c r="G134" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -13050,10 +14375,10 @@
         <v>2</v>
       </c>
       <c r="C135" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E135" s="65">
         <v>2</v>
@@ -13062,7 +14387,7 @@
         <v>3780</v>
       </c>
       <c r="G135" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -13073,10 +14398,10 @@
         <v>2</v>
       </c>
       <c r="C136" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E136" s="65">
         <v>1.8</v>
@@ -13085,7 +14410,7 @@
         <v>4950</v>
       </c>
       <c r="G136" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -13096,10 +14421,10 @@
         <v>2</v>
       </c>
       <c r="C137" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E137" s="65">
         <v>2</v>
@@ -13108,7 +14433,7 @@
         <v>3430</v>
       </c>
       <c r="G137" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -13119,10 +14444,10 @@
         <v>2</v>
       </c>
       <c r="C138" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E138" s="65">
         <v>2</v>
@@ -13131,7 +14456,7 @@
         <v>4690</v>
       </c>
       <c r="G138" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -13142,10 +14467,10 @@
         <v>2</v>
       </c>
       <c r="C139" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E139" s="65">
         <v>2.04</v>
@@ -13154,7 +14479,7 @@
         <v>2110</v>
       </c>
       <c r="G139" s="61" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -13165,10 +14490,10 @@
         <v>2</v>
       </c>
       <c r="C140" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E140" s="65">
         <v>1.1400000000000001</v>
@@ -13177,7 +14502,7 @@
         <v>3330</v>
       </c>
       <c r="G140" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -13188,10 +14513,10 @@
         <v>2</v>
       </c>
       <c r="C141" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E141" s="65">
         <v>1.2000000000000002</v>
@@ -13200,7 +14525,7 @@
         <v>1190</v>
       </c>
       <c r="G141" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -13211,10 +14536,10 @@
         <v>2</v>
       </c>
       <c r="C142" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E142" s="65">
         <v>3.6</v>
@@ -13223,7 +14548,7 @@
         <v>3330</v>
       </c>
       <c r="G142" s="61" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -13234,10 +14559,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E143" s="65">
         <v>1.92</v>
@@ -13246,7 +14571,7 @@
         <v>1570</v>
       </c>
       <c r="G143" s="61" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -13257,10 +14582,10 @@
         <v>2</v>
       </c>
       <c r="C144" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E144" s="65">
         <v>1.5</v>
@@ -13269,7 +14594,7 @@
         <v>1720</v>
       </c>
       <c r="G144" s="61" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -13280,10 +14605,10 @@
         <v>2</v>
       </c>
       <c r="C145" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E145" s="65">
         <v>0.5</v>
@@ -13292,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -13303,10 +14628,10 @@
         <v>2</v>
       </c>
       <c r="C146" s="67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E146" s="65">
         <v>0.5</v>
@@ -13315,7 +14640,7 @@
         <v>2950</v>
       </c>
       <c r="G146" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
